--- a/class_schedules/RUSSIAN (RUSS).xlsx
+++ b/class_schedules/RUSSIAN (RUSS).xlsx
@@ -14,33 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>805</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>505F</t>
+  </si>
+  <si>
+    <t>505H</t>
   </si>
   <si>
     <t>995F</t>
@@ -52,37 +46,34 @@
     <t>01</t>
   </si>
   <si>
-    <t>1716</t>
-  </si>
-  <si>
-    <t>1717</t>
-  </si>
-  <si>
-    <t>12146</t>
-  </si>
-  <si>
-    <t>11430</t>
-  </si>
-  <si>
-    <t>12147</t>
-  </si>
-  <si>
-    <t>1724</t>
-  </si>
-  <si>
-    <t>13832</t>
-  </si>
-  <si>
-    <t>1725</t>
-  </si>
-  <si>
-    <t>14350</t>
-  </si>
-  <si>
-    <t>11784</t>
-  </si>
-  <si>
-    <t>11785</t>
+    <t>02</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>14590</t>
+  </si>
+  <si>
+    <t>7946</t>
+  </si>
+  <si>
+    <t>14020</t>
+  </si>
+  <si>
+    <t>11229</t>
+  </si>
+  <si>
+    <t>11225</t>
+  </si>
+  <si>
+    <t>10800</t>
+  </si>
+  <si>
+    <t>10796</t>
   </si>
   <si>
     <t>4</t>
@@ -94,52 +85,34 @@
     <t>F</t>
   </si>
   <si>
-    <t>Jazz Theory MWF</t>
-  </si>
-  <si>
-    <t>Basic Arrang/Comp Techn MW</t>
-  </si>
-  <si>
-    <t>Jazz Improvisation I W</t>
-  </si>
-  <si>
-    <t>Intro African-American Music I T</t>
-  </si>
-  <si>
-    <t>Jazz Improvisation III M</t>
-  </si>
-  <si>
-    <t>Jazz Ensemble-Large Group MWF</t>
-  </si>
-  <si>
-    <t>Oberlin Jazz Lab MW</t>
-  </si>
-  <si>
-    <t>Jazz Ensemble Small</t>
-  </si>
-  <si>
-    <t>Circle Singing Ensemble T</t>
+    <t>Elementary Russian</t>
+  </si>
+  <si>
+    <t>Intermediate Russian</t>
+  </si>
+  <si>
+    <t>Love in a Cold Climate</t>
+  </si>
+  <si>
+    <t>Advanced Russian (1)</t>
+  </si>
+  <si>
+    <t>Women's Voices in Contemp Russ</t>
+  </si>
+  <si>
+    <t>Russian Honors -</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
-    <t>0230-0320pm</t>
-  </si>
-  <si>
-    <t>0700-0900pm</t>
-  </si>
-  <si>
-    <t>0430-0600pm</t>
-  </si>
-  <si>
-    <t>0600-0655pm</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>0500-0650pm</t>
+    <t>MTWRF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MWF</t>
   </si>
   <si>
     <t>Full</t>
@@ -148,46 +121,28 @@
     <t>Half</t>
   </si>
   <si>
-    <t>CBIB</t>
-  </si>
-  <si>
-    <t>KOHL</t>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0300-0415pm</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>0130-0220pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>CHRS</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Ferrazza Robert</t>
-  </si>
-  <si>
-    <t>Ashby Jay</t>
-  </si>
-  <si>
-    <t>Dominguez Peter</t>
-  </si>
-  <si>
-    <t>Hadley Fredara</t>
-  </si>
-  <si>
-    <t>Wall Daniel</t>
-  </si>
-  <si>
-    <t>Staff Con</t>
-  </si>
-  <si>
-    <t>La Tanya</t>
+    <t>Newlin Thomas</t>
+  </si>
+  <si>
+    <t>Scholl Tim</t>
+  </si>
+  <si>
+    <t>Solovieva Maia</t>
   </si>
 </sst>
 </file>
@@ -545,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,31 +546,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -626,31 +581,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,31 +616,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,31 +651,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,31 +686,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,31 +721,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,31 +756,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -836,31 +791,31 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -871,101 +826,31 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
